--- a/INTLINE/data/134/DEUSTATIS/National accounts - Deflators.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - Deflators.xlsx
@@ -227,7 +227,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:39:49</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:46:25</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1463,7 @@
         <v>107.93</v>
       </c>
       <c r="AG7" t="n" s="10">
-        <v>112.21</v>
+        <v>112.3</v>
       </c>
     </row>
     <row r="8">
@@ -1564,7 +1564,7 @@
         <v>107.31</v>
       </c>
       <c r="AG8" t="n" s="10">
-        <v>110.58</v>
+        <v>110.61</v>
       </c>
     </row>
     <row r="9">
@@ -1665,7 +1665,7 @@
         <v>105.75</v>
       </c>
       <c r="AG9" t="n" s="10">
-        <v>109.0</v>
+        <v>109.02</v>
       </c>
     </row>
     <row r="10">
@@ -1766,7 +1766,7 @@
         <v>111.22</v>
       </c>
       <c r="AG10" t="n" s="10">
-        <v>114.54</v>
+        <v>114.57</v>
       </c>
     </row>
     <row r="11">
@@ -1867,7 +1867,7 @@
         <v>109.98</v>
       </c>
       <c r="AG11" t="n" s="10">
-        <v>117.66</v>
+        <v>117.96</v>
       </c>
     </row>
     <row r="12">
@@ -1968,7 +1968,7 @@
         <v>110.75</v>
       </c>
       <c r="AG12" t="n" s="10">
-        <v>116.28</v>
+        <v>116.3</v>
       </c>
     </row>
     <row r="13">
@@ -2069,7 +2069,7 @@
         <v>104.33</v>
       </c>
       <c r="AG13" t="n" s="10">
-        <v>106.15</v>
+        <v>106.33</v>
       </c>
     </row>
     <row r="14">
@@ -2170,7 +2170,7 @@
         <v>117.11</v>
       </c>
       <c r="AG14" t="n" s="10">
-        <v>126.82</v>
+        <v>126.78</v>
       </c>
     </row>
     <row r="15">
@@ -2271,7 +2271,7 @@
         <v>106.57</v>
       </c>
       <c r="AG15" t="n" s="10">
-        <v>107.82</v>
+        <v>107.83</v>
       </c>
     </row>
     <row r="16">
@@ -2372,7 +2372,7 @@
         <v>102.86</v>
       </c>
       <c r="AG16" t="n" s="10">
-        <v>100.46</v>
+        <v>100.29</v>
       </c>
     </row>
     <row r="17">
@@ -2473,7 +2473,7 @@
         <v>102.14</v>
       </c>
       <c r="AG17" t="n" s="10">
-        <v>107.69</v>
+        <v>107.74</v>
       </c>
     </row>
     <row r="18">
@@ -2574,7 +2574,7 @@
         <v>100.97</v>
       </c>
       <c r="AG18" t="n" s="10">
-        <v>105.56</v>
+        <v>105.61</v>
       </c>
     </row>
     <row r="19">
@@ -2675,7 +2675,7 @@
         <v>107.49</v>
       </c>
       <c r="AG19" t="n" s="10">
-        <v>117.47</v>
+        <v>117.62</v>
       </c>
     </row>
     <row r="20">
@@ -2776,7 +2776,7 @@
         <v>99.3</v>
       </c>
       <c r="AG20" t="n" s="10">
-        <v>107.2</v>
+        <v>107.43</v>
       </c>
     </row>
     <row r="21">
@@ -2877,7 +2877,7 @@
         <v>97.45</v>
       </c>
       <c r="AG21" t="n" s="10">
-        <v>106.36</v>
+        <v>106.34</v>
       </c>
     </row>
     <row r="22">
@@ -2978,7 +2978,7 @@
         <v>106.24</v>
       </c>
       <c r="AG22" t="n" s="10">
-        <v>110.12</v>
+        <v>111.41</v>
       </c>
     </row>
     <row r="23">
@@ -3001,7 +3001,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:39:50&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:46:29&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/National accounts - Deflators.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - Deflators.xlsx
@@ -227,7 +227,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:46:25</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 05:36:38</t>
   </si>
 </sst>
 </file>
@@ -3001,7 +3001,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:46:29&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 05:36:42&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>